--- a/biology/Botanique/Clivia_miniata/Clivia_miniata.xlsx
+++ b/biology/Botanique/Clivia_miniata/Clivia_miniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clivia miniata est une espèce de Clivia (famille des Amaryllidaceae) originaire d'Afrique du Sud. Cette plante ornementale aussi appelée Clivie vermillon, Lis de St-Joseph ou Lis du Natal, pousse bien en appartement dans les zones à hiver froid.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clivia sont originaires d'Afrique australe où ils poussent dans l'ombrage des autres espèces (zone USDA 10).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vivace à croissance lente a de grosses racines charnues servant d'organes de réserve comme les plantes épiphytes dont elle est proche.
 Elle porte de nombreuses feuilles d'un vert vif de 50 cm de long.
@@ -575,9 +591,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bulbes contiennent de faibles quantités de lycorine, alcaloïde toxique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bulbes contiennent de faibles quantités de lycorine, alcaloïde toxique.
 </t>
         </is>
       </c>
@@ -606,13 +624,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante apprécie un substrat très drainant et une exposition à mi-ombre.
 Elle ne supporte pas les températures inférieures à 5 °C mais elle pousse bien en pot qu'on placera en serre froide de la mi-octobre à la mi-février (température idéale: 10 °C et arrosage réduit si on souhaite obtenir une bonne floraison au printemps).
 Arroser et donner régulièrement de l'engrais pendant la période de floraison de mars à septembre.
-Multiplication
-On multiplie les Clivia par les caïeux qui se développent sur les côtés des bulbes et qu'on détache à l'automne. On les propage aussi par le semis, dans du sable ou de la terre de bruyère, en appuyant seulement les graines à la surface du sol, sans les enterrer, et en les tenant à l'ombre. Prévoir 4 à 5 ans avant la première floraison.
 </t>
         </is>
       </c>
@@ -638,10 +656,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On multiplie les Clivia par les caïeux qui se développent sur les côtés des bulbes et qu'on détache à l'automne. On les propage aussi par le semis, dans du sable ou de la terre de bruyère, en appuyant seulement les graines à la surface du sol, sans les enterrer, et en les tenant à l'ombre. Prévoir 4 à 5 ans avant la première floraison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clivia_miniata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clivia_miniata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est parfois confondue avec une agapanthe.
 </t>
